--- a/data/georgia_census/mcxeta-mtianeti/mcxeta/population_total.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/mcxeta/population_total.xlsx
@@ -1340,13 +1340,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81D99C89-F8A6-4138-86E7-2EDC304CD3BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3178275-8F92-4211-B552-7E10CAEF4D4E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C29F5BA-516B-4052-B0EE-4B7891EF2DFC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA08709C-C358-476C-82AC-0FFF6AD2A2FA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9305A497-1E9D-4EB3-BD46-359AFFDFB617}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5821398E-B379-4333-9230-911F7B4D57DA}"/>
 </file>